--- a/aichan/547520730092780044_2021-07-15_11-00-04.xlsx
+++ b/aichan/547520730092780044_2021-07-15_11-00-04.xlsx
@@ -922,7 +922,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7350,7 +7350,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -8126,7 +8126,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -8197,7 +8197,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9866,7 +9866,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -12029,7 +12029,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -13035,7 +13035,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -13814,7 +13814,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13966,7 +13966,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -14325,7 +14325,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14605,7 +14605,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -14739,7 +14739,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -15035,7 +15035,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -15339,7 +15339,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15477,7 +15477,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -15753,7 +15753,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -16447,7 +16447,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -16897,7 +16897,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16972,7 +16972,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -17047,7 +17047,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -17639,7 +17639,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -18181,7 +18181,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -18248,7 +18248,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -18540,7 +18540,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18761,7 +18761,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18903,7 +18903,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -19041,7 +19041,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -19258,7 +19258,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -19625,7 +19625,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19927,7 +19927,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -20511,7 +20511,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -21508,7 +21508,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21939,7 +21939,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -22077,7 +22077,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -22812,7 +22812,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -23538,7 +23538,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -23688,7 +23688,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -24491,7 +24491,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -24724,7 +24724,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -24858,7 +24858,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -25075,7 +25075,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -25154,7 +25154,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -25722,7 +25722,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -25864,7 +25864,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -26314,7 +26314,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -26468,7 +26468,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -26540,7 +26540,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -27657,7 +27657,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -27803,7 +27803,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -28167,7 +28167,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -28455,7 +28455,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -28948,7 +28948,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -29161,7 +29161,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -29378,7 +29378,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -30410,7 +30410,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -30844,7 +30844,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -30915,7 +30915,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -31116,7 +31116,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -31187,7 +31187,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -31404,7 +31404,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -32197,7 +32197,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -33116,7 +33116,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -33783,7 +33783,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -34440,7 +34440,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -35193,7 +35193,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -35493,7 +35493,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -35938,7 +35938,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -36884,7 +36884,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -37531,7 +37531,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -38044,7 +38044,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -38111,7 +38111,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -38407,7 +38407,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -38549,7 +38549,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -38767,7 +38767,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -39005,7 +39005,7 @@
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -39823,7 +39823,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -39902,7 +39902,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -40324,7 +40324,7 @@
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -40963,7 +40963,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -41176,7 +41176,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -41461,7 +41461,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -41833,7 +41833,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -42646,7 +42646,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -44323,7 +44323,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -44599,7 +44599,7 @@
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -44812,7 +44812,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -44891,7 +44891,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -45120,7 +45120,7 @@
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K616" t="inlineStr">
@@ -45684,7 +45684,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -46414,7 +46414,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -47144,7 +47144,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -47665,7 +47665,7 @@
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -48938,7 +48938,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -49307,7 +49307,7 @@
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -50209,7 +50209,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -50284,7 +50284,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K687" t="inlineStr">
@@ -50807,7 +50807,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K694" t="inlineStr">
@@ -51379,7 +51379,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K702" t="inlineStr">
@@ -51525,7 +51525,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K704" t="inlineStr">
@@ -51604,7 +51604,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K705" t="inlineStr">
@@ -51679,7 +51679,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K706" t="inlineStr">
@@ -51967,7 +51967,7 @@
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K710" t="inlineStr">
@@ -52042,7 +52042,7 @@
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K711" t="inlineStr">
@@ -52497,7 +52497,7 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K717" t="inlineStr">
@@ -52547,7 +52547,7 @@
         </is>
       </c>
       <c r="F718" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G718" t="inlineStr">
         <is>
@@ -53433,7 +53433,7 @@
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K730" t="inlineStr">
@@ -53863,7 +53863,7 @@
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K736" t="inlineStr">
@@ -54945,7 +54945,7 @@
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K751" t="inlineStr">
@@ -55225,7 +55225,7 @@
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K755" t="inlineStr">
@@ -55741,7 +55741,7 @@
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K762" t="inlineStr">
@@ -55954,7 +55954,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K765" t="inlineStr">
@@ -56179,7 +56179,7 @@
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K768" t="inlineStr">
@@ -56333,7 +56333,7 @@
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K770" t="inlineStr">
@@ -56846,7 +56846,7 @@
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K777" t="inlineStr">
@@ -57651,7 +57651,7 @@
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K788" t="inlineStr">
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="I798" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="J798" t="inlineStr">
         <is>
@@ -58690,7 +58690,7 @@
       </c>
       <c r="J802" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K802" t="inlineStr">
@@ -60131,7 +60131,7 @@
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K822" t="inlineStr">
@@ -60198,7 +60198,7 @@
       </c>
       <c r="J823" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K823" t="inlineStr">
@@ -60348,7 +60348,7 @@
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K825" t="inlineStr">
@@ -60545,7 +60545,7 @@
       </c>
       <c r="J828" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K828" t="inlineStr">
@@ -65239,7 +65239,7 @@
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K892" t="inlineStr">
@@ -70113,7 +70113,7 @@
       </c>
       <c r="J959" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K959" t="inlineStr">
@@ -70184,7 +70184,7 @@
       </c>
       <c r="J960" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K960" t="inlineStr">
@@ -70397,7 +70397,7 @@
       </c>
       <c r="J963" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K963" t="inlineStr">
@@ -70460,7 +70460,7 @@
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K964" t="inlineStr">
@@ -71060,7 +71060,7 @@
       </c>
       <c r="J972" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K972" t="inlineStr">
@@ -73719,7 +73719,7 @@
       </c>
       <c r="J1009" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1009" t="inlineStr">
@@ -73798,7 +73798,7 @@
       </c>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1010" t="inlineStr">
@@ -74989,7 +74989,7 @@
       </c>
       <c r="J1026" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1026" t="inlineStr">
@@ -75491,7 +75491,7 @@
       </c>
       <c r="J1033" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1033" t="inlineStr">
@@ -76587,7 +76587,7 @@
       </c>
       <c r="J1048" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1048" t="inlineStr">
@@ -76664,7 +76664,7 @@
       </c>
       <c r="J1049" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1049" t="inlineStr">
@@ -76869,7 +76869,7 @@
       </c>
       <c r="J1052" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1052" t="inlineStr">
@@ -77366,7 +77366,7 @@
       </c>
       <c r="J1059" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1059" t="inlineStr">
@@ -77725,7 +77725,7 @@
       </c>
       <c r="J1064" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1064" t="inlineStr">
@@ -78447,7 +78447,7 @@
       </c>
       <c r="J1074" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1074" t="inlineStr">
@@ -79161,7 +79161,7 @@
       </c>
       <c r="J1084" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1084" t="inlineStr">
@@ -79315,7 +79315,7 @@
       </c>
       <c r="J1086" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1086" t="inlineStr">
@@ -80642,7 +80642,7 @@
         </is>
       </c>
       <c r="I1104" t="n">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="J1104" t="inlineStr">
         <is>
@@ -81014,7 +81014,7 @@
       </c>
       <c r="J1109" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1109" t="inlineStr">
@@ -84333,7 +84333,7 @@
         </is>
       </c>
       <c r="I1154" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="J1154" t="inlineStr">
         <is>
@@ -84976,7 +84976,7 @@
         </is>
       </c>
       <c r="I1163" t="n">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="J1163" t="inlineStr">
         <is>
